--- a/ProductReference.xlsx
+++ b/ProductReference.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
-    <t>Part Number</t>
+    <t>Référnce</t>
   </si>
   <si>
     <t>Description</t>
@@ -241,7 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -273,8 +273,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -302,7 +305,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B35" displayName="Tableau1" name="Tableau1" id="1" totalsRowShown="0">
   <autoFilter ref="A1:B35"/>
   <tableColumns count="2">
-    <tableColumn name="Part Number" id="1"/>
+    <tableColumn name="Référnce" id="1"/>
     <tableColumn name="Description" id="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
@@ -603,287 +606,287 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="35.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
     </row>

--- a/ProductReference.xlsx
+++ b/ProductReference.xlsx
@@ -690,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -722,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -730,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -738,7 +738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -746,7 +746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -754,7 +754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -762,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -770,7 +770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -794,7 +794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -802,7 +802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -810,7 +810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>

--- a/ProductReference.xlsx
+++ b/ProductReference.xlsx
@@ -818,7 +818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -826,7 +826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -834,7 +834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -842,7 +842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -850,7 +850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
@@ -858,7 +858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -866,7 +866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -874,7 +874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -882,7 +882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
